--- a/TdD III/Tarefa 2/IDH.xlsx
+++ b/TdD III/Tarefa 2/IDH.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Igor\Documents\GitHub\volta-zero\TdD III\Tarefa 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20A10658-4379-4BC5-B8B1-CF813D33858F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEFCA40-5655-4C48-926D-FAF4A6F441DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EFA372DA-812E-4C88-97CE-C7231AE3F4B3}"/>
+    <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="8880" xr2:uid="{EFA372DA-812E-4C88-97CE-C7231AE3F4B3}"/>
   </bookViews>
   <sheets>
     <sheet name="nome_do_arquivo" sheetId="2" r:id="rId1"/>
     <sheet name="Planilha1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="DadosExternos_1" localSheetId="0" hidden="1">nome_do_arquivo!$A$1:$C$53</definedName>
+    <definedName name="DadosExternos_1" localSheetId="0" hidden="1">nome_do_arquivo!$A$1:$B$53</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,10 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="139">
-  <si>
-    <t>Indice</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="96">
   <si>
     <t>Municipio</t>
   </si>
@@ -59,180 +56,120 @@
     <t>IDH</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>Porto Velho</t>
   </si>
   <si>
     <t>0.736</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Vilhena</t>
   </si>
   <si>
     <t>0.731</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>Cacoal</t>
   </si>
   <si>
     <t>0.718</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>Ji-Paraná</t>
   </si>
   <si>
     <t>0.714</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>Pimenta Bueno</t>
   </si>
   <si>
     <t>0.710</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>Ariquemes</t>
   </si>
   <si>
     <t>0.702</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>Rolim de Moura</t>
   </si>
   <si>
     <t>0.700</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>Cerejeiras</t>
   </si>
   <si>
     <t>0.692</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>Jaru</t>
   </si>
   <si>
     <t>0.689</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>Colorado do Oeste</t>
   </si>
   <si>
     <t>0.685</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>Ouro Preto do Oeste</t>
   </si>
   <si>
     <t>0.682</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>Espigão d'Oeste</t>
   </si>
   <si>
     <t>0.672</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>Santa Luzia d'Oeste</t>
   </si>
   <si>
     <t>0.670</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>Pimenteiras do Oeste</t>
   </si>
   <si>
     <t>0.665</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>Presidente Médici</t>
   </si>
   <si>
     <t>0.664</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>Castanheiras</t>
   </si>
   <si>
     <t>0.658</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>Guajará-Mirim</t>
   </si>
   <si>
     <t>0.657</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
     <t>Chupinguaia</t>
   </si>
   <si>
     <t>0.652</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>Cabixi</t>
   </si>
   <si>
     <t>0.650</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>Candeias do Jamari</t>
   </si>
   <si>
@@ -242,9 +179,6 @@
     <t>São Felipe d'Oeste</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>Cacaulândia</t>
   </si>
   <si>
@@ -254,9 +188,6 @@
     <t>São Miguel do Guaporé</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
     <t>Mirante da Serra</t>
   </si>
   <si>
@@ -275,9 +206,6 @@
     <t>Rio Crespo</t>
   </si>
   <si>
-    <t>29</t>
-  </si>
-  <si>
     <t>Primavera de Rondônia</t>
   </si>
   <si>
@@ -287,90 +215,60 @@
     <t>Alta Floresta d'Oeste</t>
   </si>
   <si>
-    <t>31</t>
-  </si>
-  <si>
     <t>Ministro Andreazza</t>
   </si>
   <si>
     <t>0.638</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
     <t>Novo Horizonte do Oeste</t>
   </si>
   <si>
     <t>0.634</t>
   </si>
   <si>
-    <t>33</t>
-  </si>
-  <si>
     <t>Vale do Paraíso</t>
   </si>
   <si>
     <t>0.627</t>
   </si>
   <si>
-    <t>34</t>
-  </si>
-  <si>
     <t>Alto Paraíso</t>
   </si>
   <si>
     <t>0.625</t>
   </si>
   <si>
-    <t>35</t>
-  </si>
-  <si>
     <t>Parecis</t>
   </si>
   <si>
     <t>0.617</t>
   </si>
   <si>
-    <t>36</t>
-  </si>
-  <si>
     <t>Buritis</t>
   </si>
   <si>
     <t>0.616</t>
   </si>
   <si>
-    <t>37</t>
-  </si>
-  <si>
     <t>Itapuã do Oeste</t>
   </si>
   <si>
     <t>0.614</t>
   </si>
   <si>
-    <t>38</t>
-  </si>
-  <si>
     <t>Corumbiara</t>
   </si>
   <si>
     <t>0.613</t>
   </si>
   <si>
-    <t>39</t>
-  </si>
-  <si>
     <t>Cujubim</t>
   </si>
   <si>
     <t>0.612</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
     <t>Costa Marques</t>
   </si>
   <si>
@@ -380,36 +278,24 @@
     <t>São Francisco do Guaporé</t>
   </si>
   <si>
-    <t>42</t>
-  </si>
-  <si>
     <t>Urupá</t>
   </si>
   <si>
     <t>0.609</t>
   </si>
   <si>
-    <t>43</t>
-  </si>
-  <si>
     <t>Monte Negro</t>
   </si>
   <si>
     <t>0.607</t>
   </si>
   <si>
-    <t>44</t>
-  </si>
-  <si>
     <t>Seringueiras</t>
   </si>
   <si>
     <t>0.598</t>
   </si>
   <si>
-    <t>45</t>
-  </si>
-  <si>
     <t>Governador Jorge Teixeira</t>
   </si>
   <si>
@@ -419,36 +305,24 @@
     <t>Machadinho d'Oeste</t>
   </si>
   <si>
-    <t>47</t>
-  </si>
-  <si>
     <t>Campo Novo de Rondônia</t>
   </si>
   <si>
     <t>0.593</t>
   </si>
   <si>
-    <t>48</t>
-  </si>
-  <si>
     <t>Alto Alegre dos Parecis</t>
   </si>
   <si>
     <t>0.592</t>
   </si>
   <si>
-    <t>49</t>
-  </si>
-  <si>
     <t>Theobroma</t>
   </si>
   <si>
     <t>0.589</t>
   </si>
   <si>
-    <t>50</t>
-  </si>
-  <si>
     <t>Nova União</t>
   </si>
   <si>
@@ -456,9 +330,6 @@
   </si>
   <si>
     <t>Nova Mamoré</t>
-  </si>
-  <si>
-    <t>52</t>
   </si>
   <si>
     <t>Vale do Anari</t>
@@ -500,17 +371,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -533,20 +400,21 @@
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DadosExternos_1" connectionId="1" xr16:uid="{D5999D1B-EAD7-4D79-8C6C-FE67DC58432E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
-    <queryTableFields count="3">
-      <queryTableField id="1" name="Indice" tableColumnId="1"/>
+    <queryTableFields count="2">
       <queryTableField id="2" name="Municipio" tableColumnId="2"/>
       <queryTableField id="3" name="IDH" tableColumnId="3"/>
     </queryTableFields>
+    <queryTableDeletedFields count="1">
+      <deletedField name="Indice"/>
+    </queryTableDeletedFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EEC0E1E-3D04-4A17-ABFA-06C502B36879}" name="nome_do_arquivo" displayName="nome_do_arquivo" ref="A1:C53" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C53" xr:uid="{6EEC0E1E-3D04-4A17-ABFA-06C502B36879}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{353A1A03-34D6-4816-B2EB-C66FE951504F}" uniqueName="1" name="Indice" queryTableFieldId="1" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EEC0E1E-3D04-4A17-ABFA-06C502B36879}" name="nome_do_arquivo" displayName="nome_do_arquivo" ref="A1:B53" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:B53" xr:uid="{6EEC0E1E-3D04-4A17-ABFA-06C502B36879}"/>
+  <tableColumns count="2">
     <tableColumn id="2" xr3:uid="{C04E2CBC-0A0A-46BC-B6B4-3603343BE8FB}" uniqueName="2" name="Municipio" queryTableFieldId="2" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{3799AB72-D20E-4A27-BA3E-8546EAA3FECF}" uniqueName="3" name="IDH" queryTableFieldId="3" dataDxfId="0"/>
   </tableColumns>
@@ -851,600 +719,440 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6AC6CBF-714E-49F9-BCD4-77FDBC108032}">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:XFD54"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="B9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="1" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="B12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="1" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="B15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B16" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="1" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="B17" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="1" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="B18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="1" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="1" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="B21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="B23" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="B25" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="B30" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="B32" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B33" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="1" t="s">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="B34" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="1" t="s">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="B35" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="1" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="B36" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="1" t="s">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="B37" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="1" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="B38" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="1" t="s">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="B39" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="1" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" s="1" t="s">
+      <c r="B40" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="1" t="s">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" s="1" t="s">
+      <c r="B41" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>76</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="B43" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B31" s="1" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="B44" t="s">
         <v>79</v>
       </c>
-      <c r="B32" s="1" t="s">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="B45" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B46" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="1" t="s">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="B47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>85</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B48" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="1" t="s">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="B49" t="s">
         <v>88</v>
       </c>
-      <c r="B35" s="1" t="s">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="B50" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>91</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B51" t="s">
         <v>92</v>
       </c>
-      <c r="C36" s="1" t="s">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="B52" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>94</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B53" t="s">
         <v>95</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>
